--- a/211003-ipdps/eval.xlsx
+++ b/211003-ipdps/eval.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\simgrid\211003-ipdps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyao\Documents\GitHub\simgrid\211003-ipdps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA51977-1CE2-44CB-886B-81F11EA10958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="execution time (calc2)" sheetId="1" r:id="rId1"/>
     <sheet name="npb" sheetId="2" r:id="rId2"/>
     <sheet name="pwa" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -241,12 +240,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,12 +266,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8328,14 +8335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
@@ -8637,6 +8644,9 @@
         <v>1.1016261978162623</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="G12" s="4"/>
+    </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>27</v>
@@ -8656,8 +8666,15 @@
       <c r="F13">
         <v>0.97457000000000005</v>
       </c>
+      <c r="G13" s="3">
+        <v>4.7003000000000003E-2</v>
+      </c>
       <c r="H13">
         <v>1.0495700000000001E-3</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(B13:H13)</f>
+        <v>0.38156141000000005</v>
       </c>
       <c r="K13">
         <v>3.1953200000000002</v>
@@ -8979,8 +8996,15 @@
       <c r="F27">
         <v>0.65536300000000003</v>
       </c>
+      <c r="G27" s="3">
+        <v>4.2985000000000002E-2</v>
+      </c>
       <c r="H27">
         <v>7.1172300000000004E-4</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(B27:H27)</f>
+        <v>0.27720551757142858</v>
       </c>
       <c r="K27">
         <v>2.1658599999999999</v>
@@ -8995,14 +9019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09982F2A-1215-4602-876F-BF8471BEAC9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
@@ -9103,14 +9127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E2438-9E4F-4984-BB6B-C84AD1DBE9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
